--- a/www/exportFile/testexport.xlsx
+++ b/www/exportFile/testexport.xlsx
@@ -7,18 +7,202 @@
     <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
   <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开发者中心</t>
+  </si>
+  <si>
+    <t>任务名称真的很奇怪11</t>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>来来来</t>
+  </si>
+  <si>
+    <t>基地为</t>
+  </si>
+  <si>
+    <t>吊袜带哇</t>
+  </si>
+  <si>
+    <t>真的尅以吗</t>
+  </si>
+  <si>
+    <t>已提测</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>来试试</t>
+  </si>
+  <si>
+    <t>少时诵诗书所</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>22222222</t>
+  </si>
+  <si>
+    <t>来个测试第9期的数据</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>杰远飞</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>为什么还不成功呢</t>
+  </si>
+  <si>
+    <t>管理后台</t>
+  </si>
+  <si>
+    <t>ceshid</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>luolinjia</t>
+  </si>
+  <si>
+    <t>hahahahah111</t>
+  </si>
+  <si>
+    <t>无数据</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>hello0001</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>zheshism</t>
+  </si>
+  <si>
+    <t>物联工场</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>高宇</t>
+  </si>
+  <si>
+    <t>第几位</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>继续测试第9期</t>
+  </si>
+  <si>
+    <t>门户</t>
+  </si>
+  <si>
+    <t>lllldwdw</t>
+  </si>
+  <si>
+    <t>陈军</t>
+  </si>
+  <si>
+    <t>dawdwa</t>
+  </si>
+  <si>
+    <t>小票机</t>
+  </si>
+  <si>
+    <t>管理员分层级，增加针对每个地市单独展示的功能</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <color rgb="ff000000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <color rgb="ff0099ff"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="ff3399ff"/>
+      </patternFill>
+    </fill>
+  </fills>
   <borders count="1">
     <border>
       <left style="none"/>
@@ -27,8 +211,17 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -360,15 +553,344 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" hidden="0" width="36" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="8" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="3" max="3" hidden="0" width="8" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="4" max="4" hidden="0" width="8" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="5" max="5" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="3"/>
+      <c r="C2" t="s" s="3"/>
+      <c r="D2" t="s" s="3"/>
+      <c r="E2" t="s" s="3"/>
+    </row>
+    <row r="3" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A10" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="3"/>
+      <c r="C10" t="s" s="3"/>
+      <c r="D10" t="s" s="3"/>
+      <c r="E10" t="s" s="3"/>
+    </row>
+    <row r="11" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3"/>
+      <c r="C14" t="s" s="3"/>
+      <c r="D14" t="s" s="3"/>
+      <c r="E14" t="s" s="3"/>
+    </row>
+    <row r="15" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="3"/>
+      <c r="C17" t="s" s="3"/>
+      <c r="D17" t="s" s="3"/>
+      <c r="E17" t="s" s="3"/>
+    </row>
+    <row r="18" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s" s="3"/>
+      <c r="C20" t="s" s="3"/>
+      <c r="D20" t="s" s="3"/>
+      <c r="E20" t="s" s="3"/>
+    </row>
+    <row r="21" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
